--- a/Result/check3/2025-04-24.xlsx
+++ b/Result/check3/2025-04-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV50"/>
+  <dimension ref="A1:AV51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-9.71</t>
+          <t>-11.88</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -743,22 +743,22 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
@@ -863,22 +863,22 @@
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>-7.56%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-22.19%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21.25</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3229</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>綠能環保平</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>701</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-2.15</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>48.75</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>70.57</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>15692</t>
+          <t>16105</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8390</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.19</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14763.0</t>
+          <t>922.362</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.42</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>72.56</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>25.6</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,77 +1217,77 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.06</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1297,92 +1297,92 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-515302.0</t>
+          <t>-15642621.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>金益鼎</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>13.24</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>9.53%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>13.54%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>41.99</t>
+          <t>150.43</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>19199</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>銅52.09%、金及含金混合貴金屬26.56%、其他21.35% (2024年)</t>
+          <t>平面顯示器驅動ic32.25%、封裝23.75%、晶圓凸塊22.11%、測試21.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>金益鼎-綠能環保-上櫃</t>
+          <t>南茂-半導體業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>綠能環保右上</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>34.12</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 其他 - 環保潔能服務產業</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>8088</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>922.362</t>
+          <t>43255.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>85.01</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25.6</t>
+          <t>33.85</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,77 +1459,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>-7.12</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>3192</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>393.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>-7.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1539,27 +1539,27 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-15642621.0</t>
+          <t>4116908.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>品安</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1569,62 +1569,62 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>13.44</t>
+          <t>197.5</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>9.53%</t>
+          <t>13.29%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>157.97</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>19054</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>平面顯示器驅動ic32.25%、封裝23.75%、晶圓凸塊22.11%、測試21.89% (2024年)</t>
+          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>南茂-半導體業-上市</t>
+          <t>品安-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>34.48</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試</t>
+          <t>** 半導體 - IC模組** 電腦及週邊設備 - 記憶體、隨身碟、記憶卡讀卡機** 通信網路 - 記憶體</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8088</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>43255.0</t>
+          <t>8549.312</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>33.85</t>
+          <t>44.85</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,77 +1701,77 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-9.55</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>85</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7145</t>
+          <t>8434</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-7.44</t>
+          <t>-2.47</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>393.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1791,82 +1791,82 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>88</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>4116908.0</t>
+          <t>162536466.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>品安</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>193.13</t>
+          <t>36.32</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>62.48</t>
+          <t>16.53</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>記憶體模組產品98.77%、快閃記憶體相關產品1.23% (2023年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>品安-半導體業-上櫃</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>16.79</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 半導體 - IC模組** 電腦及週邊設備 - 記憶體、隨身碟、記憶卡讀卡機** 通信網路 - 記憶體</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8549.312</t>
+          <t>718.463</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>16.20</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>44.85</t>
+          <t>42.1</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,112 +1943,112 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>18439</t>
+          <t>570</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-4.56</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>-1.78</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>88.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>162536466.0</t>
+          <t>129341133.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>台虹</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>37.68</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>18.74%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>16.53</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>3768</t>
+          <t>11110</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>台虹-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.4</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>40</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11210</t>
+          <t>6213</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>45.96</t>
+          <t>46.49</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>157.97</t>
+          <t>150.43</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>22614</t>
+          <t>22873</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>-1.57</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>891</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-7.95</t>
+          <t>-6.89</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>57.55</t>
+          <t>54.04</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>-6.68</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2784,37 +2784,37 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>39.03</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>15.95%</t>
+          <t>21.20%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>27.86</t>
+          <t>28.15</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2834,7 +2834,7 @@
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>18.17</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>37.23</t>
+          <t>43.11</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>57.15</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1605</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>230</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2272</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,37 +3268,37 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>918.29</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>17.54</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>8.70%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>399556</t>
+          <t>408848</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>532.13</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6482</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>381.0</t>
+          <t>1377.0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,142 +3365,142 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>67.67</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>694.0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-11.80</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-26.94</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>70.6</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>24.33</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>2489</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>48.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>37466.0</t>
+          <t>1378673.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>弘煜科</t>
+          <t>精測</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>35.15</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>23.86</t>
+          <t>37.33</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>98.01%</t>
+          <t>53.78%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>19.00%</t>
+          <t>21.70%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2226</t>
+          <t>26756</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>遊戲授權100.00% (2024年)</t>
+          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>弘煜科-文化創意業-上櫃</t>
+          <t>精測-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>251.98</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業</t>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6443</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>16566.784</t>
+          <t>381.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-5.26</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>15.2</t>
+          <t>70.6</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,172 +3637,172 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-5.90</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>-1.64</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-1.17</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>168743250.0</t>
+          <t>37466.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>元晶</t>
+          <t>弘煜科</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22.53</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>-5.28%</t>
+          <t>98.01%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>-88.50%</t>
+          <t>19.00%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>124.02</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>7794</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>太陽能模組94.95%、太陽能電池3.10%、其他營業收入1.95% (2023年)</t>
+          <t>遊戲授權100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>元晶-光電業-上市</t>
+          <t>弘煜科-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>17.5</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能電池、太陽能電池模組、太陽能電廠</t>
+          <t>** 文化創意業 - 數位內容產業</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6243</t>
+          <t>6443</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>131.461</t>
+          <t>16566.784</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>-5.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>15.2</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,32 +3879,32 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>19.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3919,32 +3919,32 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-2.65</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3954,37 +3954,37 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>5702279.0</t>
+          <t>168743250.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>迅杰</t>
+          <t>元晶</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -3994,57 +3994,57 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>46.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>41.73%</t>
+          <t>-5.28%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>-88.50%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>157.97</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>7794</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>筆記型電腦相關應用IC及其他100.00% (2023年)</t>
+          <t>太陽能模組94.95%、太陽能電池3.10%、其他營業收入1.95% (2023年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>迅杰-半導體業-上市</t>
+          <t>元晶-光電業-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>18.96</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 半導體 - 輸出入介面IC</t>
+          <t>** 太陽能產業 - 太陽能電池、太陽能電池模組、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7.1</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-2.83</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>124.02</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>13583</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4343,7 +4343,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.34</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>20.9</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>-6.71</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>124.02</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>627</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1,351</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>3835</t>
+          <t>8460</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-1.37</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>55.78</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>36.47</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4424</t>
+          <t>4743</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>2128</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4867,12 +4867,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>11.93</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>58289</t>
+          <t>58397</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>125</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>6675</t>
+          <t>10647</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.81</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>19.6</t>
+          <t>19.8</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>376038</t>
+          <t>379844</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3094.825</t>
+          <t>1073.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>22.85</t>
+          <t>35.31</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>384.5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,72 +5331,72 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>781</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-3.68</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-3.04</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-10.82</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>14.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,92 +5411,92 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>76927293.0</t>
+          <t>557174.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>鄉林</t>
+          <t>聖暉*</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>76.54</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.91</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>20.19%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>13.80%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>52.57</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>10607</t>
+          <t>47895</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
+          <t>無塵室機電整合工程56.85%、水氣化供應整合工程33.63%、民生產業機電整合工程6.10%、高科技設備材料銷售及服務1.77%、生技醫療工程1.66% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>鄉林-建材營造-上市</t>
+          <t>聖暉*-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 平面顯示器 - 生產製程及檢測設備** 印刷電路板 - 生產製程及檢測設備** 電機機械 - 冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程、工程設計、工程承攬** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備** LED照明產業 - 生產製程、檢測設備及原物料** 太陽能產業 - 太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10451.0</t>
+          <t>3094.825</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,202 +5543,202 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>78.47</t>
+          <t>22.85</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>59.1</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-0.51</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>8680</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>-6.06</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>134.0</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>98.0</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>584043.0</t>
+          <t>76927293.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>鄉林</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>25.68%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>15.34%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>52.93</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>6039</t>
+          <t>10705</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>房地銷售85.05%、酒店13.66%、租賃1.05%、其他0.23% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>鄉林-建材營造-上市</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5201</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9142.0</t>
+          <t>21826.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,17 +5785,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>65.81</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.75</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,57 +5815,57 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>10.91</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>43106</t>
+          <t>5850</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-3.95</t>
+          <t>-6.67</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5875,12 +5875,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>82.0</t>
+          <t>61.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5890,37 +5890,37 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>-89234.0</t>
+          <t>1327400.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>凱衛</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>831.67</t>
+          <t>23.82</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>49.86%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>凱衛-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5201</t>
+          <t>4949</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21826.0</t>
+          <t>29892.617</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,117 +6027,117 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>65.81</t>
+          <t>62.25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>47.55</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>6855</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>47.75</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>17.67</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>28631</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>-8.07</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>108.0</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>61.0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -6147,82 +6147,82 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>1327400.0</t>
+          <t>659289171.0</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>凱衛</t>
+          <t>有成精密</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>25.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>49.86%</t>
+          <t>37.32%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>11.96%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>27.47</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>3288</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>軟硬體系統整合43.11%、勞務及維修35.15%、授權21.73% (2024年)</t>
+          <t>太陽能56.76%、半導體43.24% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>凱衛-資訊服務業-上櫃</t>
+          <t>有成精密-光電業-上市</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務</t>
+          <t>** 半導體 - 生產製程及檢測設備** 太陽能產業 - 太陽能電池模組、太陽能發電設備/系統及系統工程</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>9.66</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>29892.617</t>
+          <t>5804.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,27 +6269,27 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>62.25</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>47.55</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,37 +6299,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>75</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>6500</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -6339,17 +6339,17 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -6359,17 +6359,17 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>59.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -6379,92 +6379,92 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>659289171.0</t>
+          <t>22628.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>有成精密</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.96</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>37.32%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>32.18</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>3341</t>
+          <t>6090</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>太陽能56.76%、半導體43.24% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>有成精密-光電業-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>23.19</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 太陽能產業 - 太陽能電池模組、太陽能發電設備/系統及系統工程</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5804.0</t>
+          <t>11249.0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>35.04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>43.45</t>
+          <t>69.1</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,77 +6541,77 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-3.63</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>-3.22</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -6626,27 +6626,27 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>22628.0</t>
+          <t>1076375.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>友威科</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>18.7</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>40.63%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>12.78%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>32.13</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>2798</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>友威科-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>其他電子業平</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>27.27</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>3576</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>-6.14</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11249.0</t>
+          <t>4466.656</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,202 +6753,202 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-3.64</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>35.04</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>69.1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-2.22</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>-3.22</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-4.84</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>202.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>56.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>1076375.0</t>
+          <t>94686628.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>友威科</t>
+          <t>聯合再生</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>40.63%</t>
+          <t>38.62%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>12.78%</t>
+          <t>25.85%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>29.04</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>14080</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>設備及售後服務85.48%、客戶委託代工(OEM)14.52% (2024年)</t>
+          <t>太陽能81.62%、其他18.38% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>友威科-其他電子業-上櫃</t>
+          <t>聯合再生-光電業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>其他電子業平</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>27.27</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 太陽能產業 - 太陽能電池、太陽能電池模組</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3576</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-6.14</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4466.656</t>
+          <t>1910.0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,27 +6995,27 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>91.7</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,32 +7025,32 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>28.64</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>91</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>14741</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.74</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7060,37 +7060,37 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>81.0</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -7105,92 +7105,92 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>81</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>94686628.0</t>
+          <t>331948.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>聯合再生</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>38.62%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>25.85%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>124.02</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>13950</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>太陽能81.62%、其他18.38% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>聯合再生-光電業-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能電池、太陽能電池模組</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3541</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1910.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>91.7</t>
+          <t>26.9</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,32 +7267,32 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>24.84</t>
+          <t>13.5</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>17920</t>
+          <t>794</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-9.38</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7302,37 +7302,37 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>81.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7347,32 +7347,32 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>331948.0</t>
+          <t>-810.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>西柏</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>22.02</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>37.43%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>110.0</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>6480</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>商品銷售96.89%、其他1.99%、維修保固1.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>西柏-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>其他電子業右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 其他電腦及週邊設備** 平面顯示器 - 監視器/顯示器、電視** 觸控面板 - 公共資訊查詢站(Kiosk)** 通信網路 - 無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)</t>
         </is>
       </c>
     </row>
@@ -7509,84 +7509,84 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>45.15</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>-64.38</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>-113.09</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>-1.0</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>805</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>45.15</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>-3.27</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>-64.38</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>-113.09</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>-5.0</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>97.48</t>
+          <t>99.28</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>67.4</t>
+          <t>67.65</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>181809</t>
+          <t>185169</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2072.0</t>
+          <t>945.0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,17 +7721,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>7.09</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>62.9</t>
+          <t>30.35</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -7751,72 +7751,72 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>20.13</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>10142</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-7.37</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>-1.20</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>-1.53</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -7826,32 +7826,32 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-05-08</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>149792.0</t>
+          <t>60435.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>泰谷</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -7866,47 +7866,47 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>38.95</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>8.77%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-9.98%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>75.39</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2530</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
+          <t>晶粒(含加工)99.92%、晶片(含加工)0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>泰谷-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>13.96</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** LED照明產業 - 光源/磊晶</t>
         </is>
       </c>
     </row>
@@ -7943,17 +7943,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3339</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>945.0</t>
+          <t>7674.0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7963,142 +7963,142 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>6.64</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>41.09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>30.35</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>21.27</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1335</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>-1.20</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>-1.53</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>24.0</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>60435.0</t>
+          <t>6305063.0</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>泰谷</t>
+          <t>大綜</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -8108,57 +8108,57 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>41.05</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>154.2</t>
+          <t>20.15</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
         <is>
-          <t>-9.98%</t>
+          <t>8.92%</t>
         </is>
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>75.74</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>2566</t>
+          <t>10571</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>晶粒(含加工)99.92%、晶片(含加工)0.08% (2024年)</t>
+          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>泰谷-光電業-上櫃</t>
+          <t>大綜-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR32" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>13.96</t>
+          <t>39.84</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>** LED照明產業 - 光源/磊晶</t>
+          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
         </is>
       </c>
     </row>
@@ -8185,17 +8185,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7674.0</t>
+          <t>600.527</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8205,27 +8205,27 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>41.09</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>28.85</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -8235,77 +8235,77 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>832</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>-3.29</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>126.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -8315,92 +8315,92 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>6305063.0</t>
+          <t>30048257.0</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>力特</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>41.05</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>22.86</t>
+          <t>15.02</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>15.00%</t>
+          <t>39.20%</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>21.61%</t>
         </is>
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>27.96</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>10649</t>
+          <t>5129</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
+          <t>電子偏光板及其他光學材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>力特-光電業-上市</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>39.84</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
+          <t>** 平面顯示器 - 其他零組件</t>
         </is>
       </c>
     </row>
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>102</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>7660</t>
+          <t>6473</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>203928</t>
+          <t>205091</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>32</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>36.01</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>271341</t>
+          <t>272901</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8961,17 +8961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>543</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>31.69</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>36.01</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>10504</t>
+          <t>10580</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>貿易百貨平</t>
+          <t>貿易百貨右上</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2,230</t>
+          <t>1,578</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>25223</t>
+          <t>23853</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>12.8</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>208916</t>
+          <t>210214</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9445,22 +9445,22 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -9560,37 +9560,37 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>43.12%</t>
+          <t>46.50%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>39.47%</t>
+          <t>42.88%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>72278</t>
+          <t>72147</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9687,17 +9687,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>583</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>11789</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -9879,17 +9879,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36862.452</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -9899,142 +9899,142 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75.73</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
+          <t>65.5</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-3.31</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1650</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1686</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3067583554.0</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>益航</t>
+          <t>資通</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
@@ -10044,57 +10044,57 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>61.93%</t>
+          <t>42.59%</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>-1.43%</t>
+          <t>23.24%</t>
         </is>
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>35.75</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>5196</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>海運32.66%、租賃21.79%、佣金(百貨-聯營)17.30%、勞務及其他17.21%、百貨-自營10.92%、融資租賃利息收入0.11% (2024年)</t>
+          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>益航-貿易百貨-上市</t>
+          <t>資通-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR40" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>19.46</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 散裝航運** 貿易百貨 - 零售通路</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
         </is>
       </c>
     </row>
@@ -10121,17 +10121,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2468</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>36862.452</t>
+          <t>32974.355</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -10141,117 +10141,117 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>75.73</t>
+          <t>25.73</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>74.3</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>23410</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>-5.70</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>-11.0</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>65.5</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>-4.13</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>1579</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-3.18</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -10261,17 +10261,17 @@
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>3067583554.0</t>
+          <t>795029422.0</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>資通</t>
+          <t>華經</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -10286,47 +10286,47 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>18.89</t>
+          <t>76.04</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>42.59%</t>
+          <t>11.44%</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>23.24%</t>
+          <t>4.66%</t>
         </is>
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
+          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>資通-資訊服務業-上市</t>
+          <t>華經-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AR41" t="inlineStr">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>19.46</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
         </is>
       </c>
     </row>
@@ -10363,17 +10363,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2468</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>-1.2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>32974.355</t>
+          <t>1996.635</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -10383,27 +10383,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>-1.21</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>25.73</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -10413,72 +10413,72 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>18929</t>
+          <t>601</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>114.0</t>
+          <t>136.0</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -10493,32 +10493,32 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>795029422.0</t>
+          <t>105831777.0</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>華經</t>
+          <t>國碩</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -10528,57 +10528,57 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>11.44%</t>
+          <t>-1.39%</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>4.66%</t>
+          <t>-33.29%</t>
         </is>
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>77.23</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>5457</t>
+          <t>4246</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>商品及系統整合75.20%、勞務24.80% (2024年)</t>
+          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>華經-資訊服務業-上市</t>
+          <t>國碩-光電業-上市</t>
         </is>
       </c>
       <c r="AR42" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、資料處理服務、通路經銷</t>
+          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
         </is>
       </c>
     </row>
@@ -10605,17 +10605,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2406</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1996.635</t>
+          <t>3111.253</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -10625,27 +10625,27 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-1.21</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -10655,72 +10655,72 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>698</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.96</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-1.49</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>136.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -10735,32 +10735,32 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
         <is>
-          <t>105831777.0</t>
+          <t>242247592.0</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>國碩</t>
+          <t>藍天</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
@@ -10770,57 +10770,57 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.57</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>-1.39%</t>
+          <t>19.60%</t>
         </is>
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>-33.29%</t>
+          <t>8.66%</t>
         </is>
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>76.04</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>4246</t>
+          <t>30254</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>導電漿85.53%、其他7.20%、電力3.87%、工程2.60%、太陽能矽輔料0.80% (2024年)</t>
+          <t>電腦產品88.36%、租賃9.18%、其他2.45%、百腦匯售樓0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
         <is>
-          <t>國碩-光電業-上市</t>
+          <t>藍天-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>76.09</t>
         </is>
       </c>
       <c r="AT43" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>** 太陽能產業 - 太陽能發電設備/系統及系統工程、太陽能電廠</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦</t>
         </is>
       </c>
     </row>
@@ -10897,7 +10897,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>914</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
@@ -11037,12 +11037,12 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>40359</t>
+          <t>39916</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -11279,12 +11279,12 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>19.3</t>
+          <t>19.08</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>9467</t>
+          <t>9325</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -11381,17 +11381,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -11406,7 +11406,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
@@ -11521,12 +11521,12 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>37.42</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>30956</t>
+          <t>31054</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -11573,17 +11573,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2445.554</t>
+          <t>792.586</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -11593,27 +11593,27 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>31.75</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>274.0</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -11623,72 +11623,72 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>810</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>-19.40</t>
+          <t>-1.58</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>-21.57</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-4.0</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -11703,32 +11703,32 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE47" t="inlineStr">
         <is>
-          <t>2198563803.0</t>
+          <t>59318821.0</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>聚陽</t>
+          <t>巧新</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>紡織纖維</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
@@ -11738,57 +11738,57 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
         <is>
-          <t>40.23</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>15.33</t>
+          <t>16.4</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>27.80%</t>
+          <t>28.42%</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>15.92%</t>
+          <t>15.59%</t>
         </is>
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>60.64</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>65374</t>
+          <t>14862</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>成衣銷售97.24%、其他2.76% (2024年)</t>
+          <t>輪圈89.44%、底盤零件及航太零件等10.56% (2024年)</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>聚陽-紡織纖維-上市</t>
+          <t>巧新-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR47" t="inlineStr">
         <is>
-          <t>紡織纖維右下</t>
+          <t>汽車工業平</t>
         </is>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>54.68</t>
+          <t>39.9</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>** 紡織 - 成衣及其它家居紡織類品</t>
+          <t>** 電機機械 - 車用機械傳動設備及零配件** 汽車 - 鋁合金鋼圈</t>
         </is>
       </c>
     </row>
@@ -11815,17 +11815,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1063.731</t>
+          <t>2445.554</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -11835,27 +11835,27 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>26.47</t>
+          <t>31.75</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>394.0</t>
+          <t>274.0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -11865,72 +11865,72 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>-28.78</t>
+          <t>-19.40</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>-33.20</t>
+          <t>-21.57</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -11940,32 +11940,32 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-05-09</t>
+          <t>2025-05-10</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AE48" t="inlineStr">
         <is>
-          <t>501767472.0</t>
+          <t>2198563803.0</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>儒鴻</t>
+          <t>聚陽</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -11980,47 +11980,47 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
         <is>
-          <t>34.88</t>
+          <t>40.23</t>
         </is>
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>15.91</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>29.85%</t>
+          <t>27.80%</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>19.54%</t>
+          <t>15.92%</t>
         </is>
       </c>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>60.64</t>
+          <t>33.37</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>112490</t>
+          <t>67841</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>成衣64.50%、針織布35.50% (2024年)</t>
+          <t>成衣銷售97.24%、其他2.76% (2024年)</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>儒鴻-紡織纖維-上市</t>
+          <t>聚陽-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR48" t="inlineStr">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>105.41</t>
+          <t>54.68</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>** 紡織 - 織布、成衣及其它家居紡織類品</t>
+          <t>** 紡織 - 成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -12057,17 +12057,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-3.36</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8667.399</t>
+          <t>1063.731</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -12077,27 +12077,27 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-5.22</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>26.47</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>11.5</t>
+          <t>394.0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -12107,112 +12107,112 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>-28.78</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>-33.20</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>1869</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>26.0</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>100322547.0</t>
+          <t>501767472.0</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>國喬</t>
+          <t>儒鴻</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>紡織纖維</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
@@ -12222,57 +12222,57 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>34.17</t>
         </is>
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>30.20%</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
         <is>
-          <t>-17.23%</t>
+          <t>21.07%</t>
         </is>
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>33.37</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>13279</t>
+          <t>116332</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+          <t>成衣64.50%、針織布35.50% (2024年)</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>國喬-塑膠工業-上市</t>
+          <t>儒鴻-紡織纖維-上市</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr">
         <is>
-          <t>塑膠工業右下</t>
+          <t>紡織纖維右下</t>
         </is>
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr">
@@ -12282,12 +12282,12 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品</t>
+          <t>** 紡織 - 織布、成衣及其它家居紡織類品</t>
         </is>
       </c>
     </row>
@@ -12299,235 +12299,477 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>1312</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-3.36</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8667.399</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-5.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>11.5</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>6807</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>100322547.0</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>國喬</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>2.76%</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>-17.23%</t>
+        </is>
+      </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>244.96</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>13777</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>石化產品44.51%、塑膠製品26.93%、尼龍7.16%、廣告6.30%、包裝材料5.14%、視訊服務4.13%、汽電3.15%、授權及其他服務等1.34%、氫氣0.95%、百貨0.35%、出售試車品0.04% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>國喬-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>1210</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>3861.181</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>18.07</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>60.0</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>3156</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>-0.63</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>0.46</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
         <is>
           <t>29.0</t>
         </is>
       </c>
-      <c r="Y50" t="inlineStr">
+      <c r="Y51" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
+      <c r="Z51" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA50" t="inlineStr">
+      <c r="AA51" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AB51" t="inlineStr">
         <is>
           <t>2025-04-18</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>2025-05-09</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>2025-05-10</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="AE50" t="inlineStr">
+      <c r="AE51" t="inlineStr">
         <is>
           <t>305812972.0</t>
         </is>
       </c>
-      <c r="AF50" t="inlineStr">
+      <c r="AF51" t="inlineStr">
         <is>
           <t>大成</t>
         </is>
       </c>
-      <c r="AG50" t="inlineStr">
+      <c r="AG51" t="inlineStr">
         <is>
           <t>食品工業</t>
         </is>
       </c>
-      <c r="AH50" t="inlineStr">
+      <c r="AH51" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
         <is>
           <t>30.44</t>
         </is>
       </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>14.72</t>
-        </is>
-      </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
         <is>
           <t>15.39%</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AM51" t="inlineStr">
         <is>
           <t>5.29%</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>44.03</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>56102</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>44.8</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>56549</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
         <is>
           <t>飼料51.87%、消費食品18.76%、肉品17.75%、大宗油脂6.90%、其他4.72% (2024年)</t>
         </is>
       </c>
-      <c r="AQ50" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>大成-食品工業-上市</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AR51" t="inlineStr">
         <is>
           <t>食品工業右上</t>
         </is>
       </c>
-      <c r="AS50" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>29.13</t>
         </is>
       </c>
-      <c r="AT50" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU50" t="inlineStr">
+      <c r="AU51" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV50" t="inlineStr">
+      <c r="AV51" t="inlineStr">
         <is>
           <t>** 食品 - 原物料、加工食品、冷凍、罐頭、脫水、醃漬食品</t>
         </is>

--- a/Result/check3/2025-04-24.xlsx
+++ b/Result/check3/2025-04-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS27"/>
+  <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>9937</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33746.715</t>
+          <t>4.001</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25.64</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>60.2</t>
+          <t>62.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -708,167 +708,167 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>3,500</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19509</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>-0.80</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>-1530947.0</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>全國</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>油電燃氣業</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>12.0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>7075497598.0</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>寶一</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>48.82</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>22.33%</t>
+          <t>11.94%</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>10.70%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>33.86</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>19315</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>無鉛汽油50.03%、超級柴油30.52%、無鉛汽油11.97%、無鉛汽油5.88%、勞務1.16%、其他0.44% (2024年)</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>全國-油電燃氣業-上市</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>18.97</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -878,12 +878,12 @@
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 油電燃氣 - 加油站</t>
         </is>
       </c>
     </row>
@@ -895,17 +895,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6752</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2669.0</t>
+          <t>33746.715</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -915,17 +915,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>39.09</t>
+          <t>25.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>60.2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -935,57 +935,57 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>18.46</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>69</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>14345</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-13.77</t>
+          <t>-1.99</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1010,92 +1010,92 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>428942.0</t>
+          <t>7075497598.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>叡揚</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>48.01</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>56.16%</t>
+          <t>22.33%</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>20.33%</t>
+          <t>10.70%</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>100.05</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>4478</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>叡揚-資訊服務業-上櫃</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>35.36</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1122,17 +1122,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6691</t>
+          <t>6752</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.73</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>465.402</t>
+          <t>2669.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>39.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>391.0</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1162,72 +1162,72 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>2354</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>-13.77</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-4.92</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>-6.16</t>
+          <t>-1.36</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1242,87 +1242,87 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>-195336528.0</t>
+          <t>428942.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>洋基工程</t>
+          <t>叡揚</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>49.96</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>21.41</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>18.85%</t>
+          <t>56.16%</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>15.86%</t>
+          <t>20.33%</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>28.02</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>43836</t>
+          <t>6421</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>工程100.00% (2024年)</t>
+          <t>技術服務94.97%、商品銷售5.03% (2024年)</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>洋基工程-其他電子業-上市</t>
+          <t>叡揚-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>59.99</t>
+          <t>35.36</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 人工智慧 - 系統整合、顧問諮詢、領域解決方案、智慧設備、機器學習、電腦視覺、自然語言處理、移動控制、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、電力設備、冷卻設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安營運管理服務、資安顧問服務</t>
         </is>
       </c>
     </row>
@@ -1389,32 +1389,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>26.32</t>
+          <t>23.85</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3451</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>-1.19</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1499,37 +1499,37 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>30.35%</t>
+          <t>50.52%</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>18.56%</t>
+          <t>37.23%</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>168.99</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1616,17 +1616,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>16.22</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>55.66</t>
+          <t>58.42</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>5003</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1843,17 +1843,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>29.64</t>
+          <t>35.99</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>7685</t>
+          <t>10319</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1863,12 +1863,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1978,12 +1978,12 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>107.24</t>
+          <t>105.83</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>6319</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
@@ -2070,22 +2070,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>752</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -2180,37 +2180,37 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>74.75</t>
+          <t>65.58</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>18.57</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>10.35%</t>
+          <t>11.02%</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5.00%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>33418</t>
+          <t>32915</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>59.11</t>
+          <t>64.11</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2297,17 +2297,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>11.74</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>60.1</t>
+          <t>30.87</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>32.7</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>4704</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
@@ -2524,17 +2524,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2413</t>
+          <t>2159</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>-2.07</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>11.8</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>58723</t>
+          <t>57638</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>940</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -2771,12 +2771,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>-1.56</t>
+          <t>-3.61</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
@@ -2886,12 +2886,12 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>31.81</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>47523</t>
+          <t>46406</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
@@ -2983,27 +2983,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3103,17 +3103,17 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>25.68%</t>
+          <t>-1.18%</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>15.34%</t>
+          <t>-196.63%</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>51.06</t>
+          <t>51.73</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>25.34</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5032</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>30.41</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
@@ -3340,12 +3340,12 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>34.06</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>4946</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5804.0</t>
+          <t>284.0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3412,17 +3412,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>14.84</t>
+          <t>35.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>43.45</t>
+          <t>142.5</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -3432,57 +3432,57 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>5710</t>
+          <t>508</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>26.05</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-7.76</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -3492,47 +3492,47 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
           <t>23.0</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>22628.0</t>
+          <t>-8295.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>鑫聯大投控</t>
+          <t>辣椒</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -3542,57 +3542,57 @@
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>19.61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>20.94%</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>1.78%</t>
+          <t>-95.59%</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>1586</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
+          <t>遊戲營運66.66%、商品銷售14.24%、餐飲13.84%、其他5.26% (2024年)</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
+          <t>辣椒-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>23.26</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 營運發行</t>
         </is>
       </c>
     </row>
@@ -3619,17 +3619,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3665</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5913.491</t>
+          <t>5804.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3639,17 +3639,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>40.51</t>
+          <t>14.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>532.0</t>
+          <t>43.45</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3659,72 +3659,72 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>34</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-4.29</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-14.41</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-24.39</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3734,92 +3734,92 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>74</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>3573571413.0</t>
+          <t>22628.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>貿聯-KY</t>
+          <t>鑫聯大投控</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>87.14</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>26.39</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>28.78%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>13.80%</t>
+          <t>1.78%</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>34.06</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>116331</t>
+          <t>5638</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>電腦傳輸47.13%、工業應用36.36%、家用電器16.52% (2024年)</t>
+          <t>電腦,零組件及週邊設備99.30%、其他0.70% (2024年)</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>貿聯-KY-其他電子業-上市</t>
+          <t>鑫聯大投控-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>191.02</t>
+          <t>23.26</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 連接線、其他電腦及週邊設備之零組件** 通信網路 - 線材、其他零組件** 連接器 - 塑膠材料、連接器設計、組裝及製造** 印刷電路板 - 基板組裝加工及相關製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 太陽能產業 - 材料** 能源元件 - 原材料** 醫療器材 - 塑化材料、金屬零件</t>
+          <t>** 電腦及週邊設備 - 中央處理器、晶片組、面板、顯示器模組、記憶體、主機板、機殼、電源供應器、網路卡、電池、散熱片、風扇馬達、散熱模組、輸出入模組/介面卡、顯示卡、硬碟機、光碟機、磁碟儲存系統、BIOS(嵌入式軟體)、筆記型電腦、桌上型電腦、工業電腦、精簡型電腦、伺服器、其他電腦及週邊設備、隨身碟、記憶卡讀卡機、多功能視訊卡、光學鏡片、鏡頭、光碟片、連接線、機構樞紐、金屬、塑膠模具、印表機、傳真機、掃瞄器、多功能事務機、投影機、安全監控系統、其他電腦及週邊設備之零組件</t>
         </is>
       </c>
     </row>
@@ -3846,17 +3846,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1910.0</t>
+          <t>5913.491</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3866,17 +3866,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>40.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>91.7</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -3886,167 +3886,167 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>23.58</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>-7.08</t>
+          <t>-2.45</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>-14.41</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>-24.39</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>331948.0</t>
+          <t>3573571413.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>貿聯-KY</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>76.03</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>21.66</t>
+          <t>26.39</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>28.78%</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>13.80%</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>168.99</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>6374</t>
+          <t>116331</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>電腦傳輸47.13%、工業應用36.36%、家用電器16.52% (2024年)</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>貿聯-KY-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>191.02</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 休閒娛樂 - 休閒車業** 電腦及週邊設備 - 連接線、其他電腦及週邊設備之零組件** 通信網路 - 線材、其他零組件** 連接器 - 塑膠材料、連接器設計、組裝及製造** 印刷電路板 - 基板組裝加工及相關製造** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 太陽能產業 - 材料** 能源元件 - 原材料** 醫療器材 - 塑化材料、金屬零件</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4073,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2407.673</t>
+          <t>1910.0</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4093,17 +4093,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.91</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>91.7</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -4113,72 +4113,72 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>28.64</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>74</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>13241</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>8.0</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>-9.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -4188,92 +4188,92 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>141371565.0</t>
+          <t>331948.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>奇偶</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>6.83</t>
+          <t>23.19</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>47.63%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>15.71%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>168.67</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>6825</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>數位監控系統及其相關產品100.00% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>奇偶-光電業-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>光電業平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>28.95</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -4345,12 +4345,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,284</t>
+          <t>1,445</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>27535</t>
+          <t>37070</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>111.61</t>
+          <t>57.65</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>3128</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7674.0</t>
+          <t>385.0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4547,17 +4547,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>41.09</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>257.0</t>
+          <t>24.55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4567,72 +4567,72 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>-2.74</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -4642,32 +4642,32 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>6305063.0</t>
+          <t>10801.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>大綜</t>
+          <t>昇銳</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -4677,57 +4677,57 @@
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>80.72</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>18.74</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>34.83%</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>28.02</t>
+          <t>66.54</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>9830</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>商品銷售89.73%、服務合約6.40%、建造合同3.87% (2024年)</t>
+          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>大綜-資訊服務業-上櫃</t>
+          <t>昇銳-光電業-上櫃</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>光電業右下</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>38.41</t>
+          <t>16.91</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備之零組件** 軟體服務 - 系統整合服務、通路經銷</t>
+          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -4754,17 +4754,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3128</t>
+          <t>2801</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>385.0</t>
+          <t>9029.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4774,17 +4774,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>24.55</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4794,167 +4794,167 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>22526</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10801.0</t>
+          <t>130578811.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>昇銳</t>
+          <t>彰銀</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>12.66</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>34.83%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>67.03</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>208987</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>倒車系統31.36%、數位影像錄放影機27.94%、攝影機25.19%、材料及其他5.78%、專案-材料及其他3.12%、專案-攝影機2.40%、專案-數位錄放影機2.08%、監視器1.26%、專案-倒車系統0.79%、專案-監視器0.08% (2024年)</t>
+          <t>利息淨收益54.91%、透過損益按公允價值衡量之金22.21%、手續費淨收益16.42%、透過其他綜合損益按公允價值3.34%、兌換損益2.53%、其他利息以外淨收益0.68% (2024年)</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>昇銳-光電業-上櫃</t>
+          <t>彰銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>光電業右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>16.91</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4964,12 +4964,12 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 磁碟儲存系統、安全監控系統** 平面顯示器 - 監視器/顯示器** 汽車 - 其他** 人工智慧 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -4981,112 +4981,112 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3056</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>683.052</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>140.5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>14.59</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>0.53</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4598.668</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>25.38</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>-0.8</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2790</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>-0.66</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-2.59</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-4.07</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>8.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -5101,27 +5101,27 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>245318093.0</t>
+          <t>165320269.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>富華新</t>
+          <t>敦陽科</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
@@ -5131,57 +5131,57 @@
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>14.59</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>21.06</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>23.19%</t>
+          <t>25.07%</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>20.35%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>51.06</t>
+          <t>27.49</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>13420</t>
+          <t>17496</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>房地產96.94%、工程2.10%、餐飲0.61%、租賃0.17%、其他營業收入0.17% (2024年)</t>
+          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>富華新-建材營造-上市</t>
+          <t>敦陽科-資訊服務業-上市</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>27.15</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
         </is>
       </c>
     </row>
@@ -5208,17 +5208,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2801</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9029.94</t>
+          <t>4212.873</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5228,17 +5228,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>218.0</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5248,57 +5248,57 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>23920</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -5308,47 +5308,47 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>-6.0</t>
-        </is>
-      </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>130578811.0</t>
+          <t>1391643117.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>彰銀</t>
+          <t>可成</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -5358,57 +5358,57 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>6.7</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>13.99</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.02%</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>167.12</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>208427</t>
+          <t>150360</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>利息淨收益54.91%、透過損益按公允價值衡量之金22.21%、手續費淨收益16.42%、透過其他綜合損益按公允價值3.34%、兌換損益2.53%、其他利息以外淨收益0.68% (2024年)</t>
+          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>彰銀-金融保險-上市</t>
+          <t>可成-其他電子業-上市</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>257.57</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 機殼</t>
         </is>
       </c>
     </row>
@@ -5435,17 +5435,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>683.052</t>
+          <t>9171.377</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>12.83</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5465,7 +5465,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>140.5</t>
+          <t>71.7</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5475,37 +5475,37 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>768</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -5515,32 +5515,32 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-2.59</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -5555,27 +5555,27 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-05-13</t>
+          <t>2025-05-14</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>165320269.0</t>
+          <t>661399840.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>敦陽科</t>
+          <t>聯強</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
@@ -5585,57 +5585,57 @@
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>4.6</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>54.8</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>25.07%</t>
+          <t>4.37%</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>17177</t>
+          <t>120092</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>電腦主機及週邊設備68.13%、勞務31.76%、其他0.11% (2024年)</t>
+          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>敦陽科-資訊服務業-上市</t>
+          <t>聯強-電子通路業-上市</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發、系統整合服務** 區塊鏈 - 交易平台、商業應用** 金融科技 - 數據分析、資料聚合、數位身分** 人工智慧 - 系統整合、顧問諮詢、運算設備、雲端平台、資料處理** 雲端運算 - 電腦設備、設備管理軟體、營運管理軟體、虛擬化軟體、雲端作業系統、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS** 資通訊安全 - 安全營運與事件回應、資安治理、資料安全、網頁內容安全、雲端安全、網路基礎設施、網路安全防護、物聯網安全、端點安全防護、身分認證與訪問管理、行動安全、資安防護能力分析與鑑識服務、資安顧問服務** 大數據 - 系統整合、顧問諮詢、資料庫、分析工具、應用軟體、運算元件與設備、雲端平台、儲存處理</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -5662,17 +5662,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2474</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4212.873</t>
+          <t>5005.758</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5682,17 +5682,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>218.0</t>
+          <t>24.5</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5702,32 +5702,32 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>-4.71</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5742,17 +5742,17 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -5762,12 +5762,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>42.0</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -5787,22 +5787,22 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>1391643117.0</t>
+          <t>-35237843.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>可成</t>
+          <t>億泰</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電器電纜</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -5812,57 +5812,57 @@
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>7.39</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>35.02%</t>
+          <t>14.91%</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>166.26</t>
+          <t>21.87</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>149340</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>機殼及內構件99.82%、租賃0.16%、勞務0.02% (2024年)</t>
+          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>可成-其他電子業-上市</t>
+          <t>億泰-電器電纜-上市</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電器電纜右上</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>257.57</t>
+          <t>11.66</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -5876,687 +5876,6 @@
         </is>
       </c>
       <c r="AS24" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 機殼</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2471</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>36862.452</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>75.73</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>65.5</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-3.64</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1368</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>-0.16</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>2025-05-12</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>3067583554.0</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>資通</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>資訊服務業</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>18.48</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
-        <is>
-          <t>30.71%</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>0.45%</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>27.83</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>2986</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>勞務93.19%、商品銷售6.81% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>資通-資訊服務業-上市</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>資訊服務業右上</t>
-        </is>
-      </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>19.76</t>
-        </is>
-      </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS25" t="inlineStr">
-        <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 金融科技 - 監理法遵** 人工智慧 - 系統整合** 雲端運算 - 系統整合** 資通訊安全 - 資料安全、端點安全防護** 大數據 - 系統整合、資料庫</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9171.377</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>17.75</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>71.7</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1856</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>-1.11</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>-0.58</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>-1.00</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>23.0</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>661399840.0</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>聯強</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>54.8</t>
-        </is>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>13.62</t>
-        </is>
-      </c>
-      <c r="AI26" t="inlineStr">
-        <is>
-          <t>4.37%</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>2.06%</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>16.72</t>
-        </is>
-      </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>120426</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>聯強-電子通路業-上市</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS26" t="inlineStr">
-        <is>
-          <t>** 半導體 - IC通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1616</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-1.0</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5005.758</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>14.25</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>24.5</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>3354</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>2025-04-21</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>2025-05-13</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>-35237843.0</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>億泰</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>電器電纜</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>12.48</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr">
-        <is>
-          <t>14.91%</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.85%</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>22.02</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>4941</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>電力電纜85.56%、通信電纜4.40%、光纖電纜4.03%、裸銅線2.38%、其他2.09%、橡膠電纜1.55% (2024年)</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>億泰-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>電器電纜右上</t>
-        </is>
-      </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AS27" t="inlineStr">
         <is>
           <t>** 其他 - 其他</t>
         </is>

--- a/Result/check3/2025-04-24.xlsx
+++ b/Result/check3/2025-04-24.xlsx
@@ -798,7 +798,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>-1530947.0</t>
+          <t>287547392.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>7075497598.0</t>
+          <t>5356391047.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>428942.0</t>
+          <t>467390.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>45994.0</t>
+          <t>106710.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19804.0</t>
+          <t>29099.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>8344.0</t>
+          <t>42740.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>409324545.0</t>
+          <t>685551134.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>67521980.0</t>
+          <t>531519023.0</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>206004473.0</t>
+          <t>739426468.0</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>557174.0</t>
+          <t>1025487.0</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>76927293.0</t>
+          <t>30392591.0</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
@@ -3295,7 +3295,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>1842.0</t>
+          <t>17608.0</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-8295.0</t>
+          <t>144695.0</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>22628.0</t>
+          <t>910902.0</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>3573571413.0</t>
+          <t>8814991405.0</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>331948.0</t>
+          <t>528836.0</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>-2697817600.0</t>
+          <t>15488973329.0</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10801.0</t>
+          <t>116460.0</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>130578811.0</t>
+          <t>180000086.0</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>165320269.0</t>
+          <t>152951833.0</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>1391643117.0</t>
+          <t>3670332647.0</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>661399840.0</t>
+          <t>797765053.0</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>-35237843.0</t>
+          <t>180474165.0</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
